--- a/1. 기능정리/Project06 - 요구사항 정의서 - 형준.xlsx
+++ b/1. 기능정리/Project06 - 요구사항 정의서 - 형준.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kokoc\Desktop\project06\1. 기능정리\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E217540-E694-4A8B-A6FB-00CC7CD2CBA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$29</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
   <si>
     <t>현태</t>
   </si>
@@ -201,12 +207,6 @@
     <t>KB – M - 007</t>
   </si>
   <si>
-    <t>KB – P - 008</t>
-  </si>
-  <si>
-    <t>KB – M - 008</t>
-  </si>
-  <si>
     <t>HT – P - 009</t>
   </si>
   <si>
@@ -225,28 +225,10 @@
     <t>HT – M - 011</t>
   </si>
   <si>
-    <t>KB – P – 013</t>
-  </si>
-  <si>
-    <t>KB – M – 013</t>
-  </si>
-  <si>
-    <t>YS – P – 014
-YS – P – 015</t>
-  </si>
-  <si>
-    <t>YS – M – 014
-YS – M – 015</t>
-  </si>
-  <si>
     <t>HT – P – 021</t>
   </si>
   <si>
     <t>SH – P – 022</t>
-  </si>
-  <si>
-    <t>KB – P – 026
-KB – P – 027</t>
   </si>
   <si>
     <t>HJ – P – 028
@@ -261,15 +243,244 @@
     <t>관리자</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>계정관련</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, PW를 입력하여 로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호, 이름, 이메일, 휴대폰번호를 등록하여 회원가입. 아이디는 중복 불가</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입 시 이용한 이름, 이메일을 통해서 아이디 찾기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입 시 이용한 이름, 이메일, 아이디, 휴대폰번호를 이용하여 비밀번호 찾기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠 작성</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커 등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 컨텐츠 작성 기능은 로그인 이후 사용 가능. 비로그인 상태로 해당 기능에 접근하면, 로그인 페이지로 유도한다.
+프로젝트를 등록하기 위해서는 메이커를 먼저 등록해야하며, 메이커명(기업명)을 입력하여 먼저 메이커를 만든다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 조회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 프로젝트가 목표를 달성한 경우, 웹 내 상점에 등록할 수 있다.
+이 경우, 옵션들의 가격 정보가 변경되기 때문에 새로 정보를 작성?</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠 조회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 조회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩하기, 구매하기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 펀딩</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 조회는 로그인 여부에 관계 없이 가능.
+홈화면 네비게이션 내 펀딩하기 메뉴를 클릭하여 프로젝트 조회 페이지로 이동한다.
+카테고리별 상품들이 리스트되며, 카테고리에 관계없이 조회할 수도 있다.
+검색하여 특정 키워드를 가진 프로젝트를 조회할 수도 있다.
+클릭 시 상세페이지로 이동.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 조회는 로그인 여부에 관계 없이 가능.
+홈화면 네비게이션 내 상점 메뉴를 클릭하여상점 페이지로 이동한다.
+카테고리별 상품들이 리스트되며, 카테고리에 관계없이 조회할 수도 있다.
+검색하여 특정 키워드를 가진 상품을 조회할 수도 있다.
+클릭 시 상세페이지로 이동.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 구매</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 상태에서만 접근가능 하며, 비로그인 상태에서 접근 시 로그인 페이지로 이동.
+조회한 상품의 상세페이지에서 구매하기 버튼을 통해 구매를 진행한다.
+구매는 총 2단계(옵션 선택, 바로 결제)로 이루어져있다.
+1단계 옵션 선택 - 옵션을 선택하고, 추가 정보를 입력할 수도 있다.
+2단계 바로 결제 - 배송지입력, 결제 정보 입력하여 결제 예약버튼을 통해 결제 예약한다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 상태에서만 접근가능 하며, 비로그인 상태에서 접근 시 로그인 페이지로 이동.
+조회한 프로젝트의 상세페이지에서 펀딩하기 버튼을 통해 펀딩을 진행한다.
+펀딩은 총 2단계(리워드 선택, 결제 예약)로 이루어져있다.
+1단계 리워드 선택 - 옵션을 선택하고, 추가 정보를 입력할 수도 있다.
+2단계 결제 예약 - 배송지입력, 결제 정보 입력하여 결제 예약버튼을 통해 결제 예약한다.
+미배송 상품의 경우 배송지 입력은 생략.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 문의(QnA)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트, 상품 문의</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 상태에서 접근 가능한 기능.
+서비스 이용에 대한 문의. 답변자는 관리자.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 상태에서 접근 가능한 기능.
+프로젝트 혹은 상품에 대한 문의를 할 수 있으며, 답변자는 메이커.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단바 우측에 있는 알림창.
+문의 내용이 등록되거나, 내 문의에 대한 답변이 등록되었을 때 알림이 표시됨.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 등록한 프로젝트 또는 후원한 프로젝트 조회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 변경</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 내 프로필 수정을 통해 변경 가능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커가 등록되면, 메이커 스튜디오가 오픈된다. 메이커 스튜디오에서 프로젝트를 등록할 수 있다.
+프로젝트 등록 단계는 총 3단계(기본정보 작성, 소개정보 작성, 리워드 설계)로 나뉜다.
+기본정보 작성 시 프로젝트명, 목표 금액, 대표 이미지, 카테고리를 설정한다. (* 카테고리 종류:테크-가전, 패션-잡화, 뷰티, 푸드, 홈리빙, 여행-레저, 반려동물)
+소개정보 작성 시 소개 사진 등록(여러 장 등록 가능), 프로젝트 요약(100자 이내 text-only), 프로젝트 상세설명(WYSIWYG)을 등록한다.
+리워드 설계 시, 금액, 리워드명, 상세설명, 배송여부 선택하여 등록한다.
+3단계 정보 작성이 완료되면 프로젝트를 제출할 수 있다.
+제출된 프로젝트는 관리자에 의해 검토되어 정상 등록된다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 수정 페이지 내 회원탈퇴 버튼을 통해 탈퇴 가능.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 조회/수정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보를 조회하거나 수정할 수 있음.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 승인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청된 프로젝트를 검토하고, 반려 혹은 승인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 수정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인된 프로젝트지만 이후 문제가 발생한 경우 수정(삭제 포함) 가능.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 수정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 조회 및 수정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 내 메이커 스튜디오에서 내 프로젝트 조회 및 수정, 내 후원 메뉴에서 내가 후원한 프로젝트 조회.
+내 상점, 구매 내역 메뉴에서 각각 판매 물품, 구매 물품 조회 및 수정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -368,18 +579,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -407,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -675,11 +874,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -747,9 +955,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -761,12 +966,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -783,31 +982,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,9 +1001,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -857,6 +1032,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1073,11 +1272,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG991"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1135,22 +1334,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="52"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1172,20 +1371,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="55"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1333,13 +1532,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1419,21 +1618,27 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A9" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="A9" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="12">
         <v>1</v>
       </c>
@@ -1462,19 +1667,23 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
       <c r="N10" s="12">
         <v>1</v>
       </c>
@@ -1503,19 +1712,23 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="29"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>50</v>
+      </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="30"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="27"/>
       <c r="N11" s="18">
         <v>2</v>
       </c>
@@ -1544,28 +1757,26 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="27"/>
-      <c r="N12" s="18">
-        <v>1</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="N12" s="18"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1585,21 +1796,25 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>79</v>
+      </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="27"/>
       <c r="N13" s="18"/>
-      <c r="O13" s="10"/>
+      <c r="O13" s="15"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1620,21 +1835,25 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="29"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>82</v>
+      </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="27"/>
       <c r="N14" s="18"/>
-      <c r="O14" s="10"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1654,28 +1873,34 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="29"/>
+    <row r="15" spans="1:33" ht="63.75" customHeight="1">
+      <c r="A15" s="38"/>
+      <c r="B15" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1695,29 +1920,27 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="29"/>
+    <row r="16" spans="1:33" ht="144.75" customHeight="1">
+      <c r="A16" s="38"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>80</v>
+      </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="18">
-        <v>1</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1736,29 +1959,27 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="29"/>
+    <row r="17" spans="1:33" ht="63.75" customHeight="1">
+      <c r="A17" s="38"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>60</v>
+      </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="18">
-        <v>1</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1777,28 +1998,34 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
+    <row r="18" spans="1:33" ht="72" customHeight="1">
+      <c r="A18" s="38"/>
+      <c r="B18" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>65</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="18">
         <v>2</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1818,28 +2045,32 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
+    <row r="19" spans="1:33" ht="80.25" customHeight="1">
+      <c r="A19" s="38"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>66</v>
+      </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="27"/>
       <c r="N19" s="18">
         <v>1</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1859,29 +2090,27 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
+    <row r="20" spans="1:33" ht="41.25" customHeight="1">
+      <c r="A20" s="38"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>76</v>
+      </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="27"/>
-      <c r="N20" s="18">
-        <v>2</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="N20" s="18"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1900,29 +2129,27 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
+    <row r="21" spans="1:33" ht="67.5" customHeight="1">
+      <c r="A21" s="38"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="27"/>
-      <c r="N21" s="18">
-        <v>1</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="N21" s="18"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -1941,27 +2168,35 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="46.5" customHeight="1">
-      <c r="A22" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
+    <row r="22" spans="1:33" ht="90" customHeight="1">
+      <c r="A22" s="38"/>
+      <c r="B22" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="18">
-        <v>3</v>
-      </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1980,28 +2215,32 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="53.25" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="30"/>
+    <row r="23" spans="1:33" ht="92.25" customHeight="1">
+      <c r="A23" s="38"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="18">
         <v>1</v>
       </c>
-      <c r="O23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>45</v>
+      <c r="O23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2021,27 +2260,35 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+    <row r="24" spans="1:33" ht="63" customHeight="1">
+      <c r="A24" s="38"/>
+      <c r="B24" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>73</v>
+      </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="30"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="26"/>
       <c r="N24" s="18">
-        <v>3</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P24" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -2061,26 +2308,26 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>74</v>
+      </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="18">
-        <v>3</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P25" s="14"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -2099,27 +2346,33 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="27"/>
+    <row r="26" spans="1:33" ht="46.5" customHeight="1">
+      <c r="A26" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="26"/>
       <c r="N26" s="18">
         <v>3</v>
       </c>
-      <c r="O26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P26" s="16"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2138,27 +2391,33 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="51.75" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
+    <row r="27" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A27" s="34"/>
+      <c r="B27" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>89</v>
+      </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="33"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="27"/>
       <c r="N27" s="18">
         <v>3</v>
       </c>
-      <c r="O27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="16"/>
+      <c r="O27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="10"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2178,24 +2437,30 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>91</v>
+      </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="27"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="26"/>
       <c r="N28" s="18">
         <v>3</v>
       </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
+      <c r="O28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="14"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2214,17 +2479,33 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+    <row r="29" spans="1:33" ht="41.25" customHeight="1">
+      <c r="A29" s="35"/>
+      <c r="B29" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="18">
+        <v>3</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" s="16"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2275,14 +2556,11 @@
     <row r="31" spans="1:33" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="M31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="M31" s="2"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2314,9 +2592,6 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2349,7 +2624,9 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="L33" s="17"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2382,11 +2659,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="2"/>
+      <c r="L34" s="17"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2420,7 +2693,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
@@ -2457,7 +2730,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="2"/>
@@ -2494,7 +2767,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="2"/>
@@ -2531,7 +2804,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="2"/>
@@ -2567,9 +2840,11 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="2"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -9277,7 +9552,41 @@
       <c r="AF230" s="1"/>
       <c r="AG230" s="1"/>
     </row>
-    <row r="231" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="231" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A231" s="1"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
+      <c r="W231" s="1"/>
+      <c r="X231" s="1"/>
+      <c r="Y231" s="1"/>
+      <c r="Z231" s="1"/>
+      <c r="AA231" s="1"/>
+      <c r="AB231" s="1"/>
+      <c r="AC231" s="1"/>
+      <c r="AD231" s="1"/>
+      <c r="AE231" s="1"/>
+      <c r="AF231" s="1"/>
+      <c r="AG231" s="1"/>
+    </row>
     <row r="232" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="233" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="234" spans="1:33" ht="15.75" customHeight="1"/>
@@ -10038,20 +10347,20 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P28"/>
-  <mergeCells count="11">
+  <autoFilter ref="A7:P29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="10">
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A9:A25"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10060,7 +10369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/1. 기능정리/Project06 - 요구사항 정의서 - 형준.xlsx
+++ b/1. 기능정리/Project06 - 요구사항 정의서 - 형준.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kokoc\Desktop\project06\1. 기능정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E217540-E694-4A8B-A6FB-00CC7CD2CBA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E1708D-15C8-478B-A551-C55C1933388B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,12 +464,12 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>상점 조회 및 수정</t>
+    <t>마이페이지 내 메이커 스튜디오에서 내 프로젝트 조회 및 수정, 내 후원 메뉴에서 내가 후원한 프로젝트 조회.
+내 상점, 구매 내역 메뉴에서 각각 판매 물품, 구매 물품 조회 및 수정</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>마이페이지 내 메이커 스튜디오에서 내 프로젝트 조회 및 수정, 내 후원 메뉴에서 내가 후원한 프로젝트 조회.
-내 상점, 구매 내역 메뉴에서 각각 판매 물품, 구매 물품 조회 및 수정</t>
+    <t xml:space="preserve">상점 조회 및 수정 </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -985,63 +985,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1057,6 +1005,58 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1334,22 +1334,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1371,20 +1371,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1532,13 +1532,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1618,10 +1618,10 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="55" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -1667,8 +1667,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="22" t="s">
         <v>48</v>
       </c>
@@ -1712,12 +1712,12 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="21"/>
@@ -1757,12 +1757,12 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="21"/>
@@ -1796,12 +1796,12 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="33" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="21"/>
@@ -1835,12 +1835,12 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="33" t="s">
         <v>82</v>
       </c>
       <c r="E14" s="21"/>
@@ -1874,14 +1874,14 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="63.75" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="49" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="33" t="s">
         <v>57</v>
       </c>
       <c r="E15" s="21"/>
@@ -1921,12 +1921,12 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="144.75" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="21"/>
@@ -1960,12 +1960,12 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="63.75" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="33" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="21"/>
@@ -1999,14 +1999,14 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="72" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="52" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="33" t="s">
         <v>65</v>
       </c>
       <c r="E18" s="21"/>
@@ -2046,12 +2046,12 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="80.25" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="33" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="21"/>
@@ -2091,12 +2091,12 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="41.25" customHeight="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="57" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="36" t="s">
         <v>76</v>
       </c>
       <c r="E20" s="21"/>
@@ -2130,13 +2130,13 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="67.5" customHeight="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="60" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="54" t="s">
-        <v>94</v>
+      <c r="D21" s="33" t="s">
+        <v>93</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -2169,14 +2169,14 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="90" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="33" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="60" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="37" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="21"/>
@@ -2216,12 +2216,12 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="92.25" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="34" t="s">
         <v>68</v>
       </c>
       <c r="E23" s="21"/>
@@ -2261,14 +2261,14 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="63" customHeight="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="60" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="34" t="s">
         <v>73</v>
       </c>
       <c r="E24" s="21"/>
@@ -2308,8 +2308,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="38"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="31" t="s">
         <v>72</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="46.5" customHeight="1">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="32" t="s">
@@ -2356,7 +2356,7 @@
       <c r="C26" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="39" t="s">
         <v>87</v>
       </c>
       <c r="E26" s="28"/>
@@ -2392,8 +2392,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="36" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="49" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="26" t="s">
@@ -2437,8 +2437,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="26" t="s">
         <v>90</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="41.25" customHeight="1">
-      <c r="A29" s="35"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="26" t="s">
         <v>85</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>92</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -10351,16 +10351,16 @@
   </sheetData>
   <autoFilter ref="A7:P29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A9:A25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A9:A25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
